--- a/Output/Relatorio_IT145632.xlsx
+++ b/Output/Relatorio_IT145632.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AAECEF-618F-4883-AAEE-E6213335D876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8126FFB-F429-4366-A3C2-C3FAADA88FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="3540" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="{ID_VENDOR}" sheetId="1" r:id="rId1"/>
@@ -47,22 +47,7 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>[D0]</t>
-  </si>
-  <si>
     <t>[Vendor Name]</t>
-  </si>
-  <si>
-    <t>[Street]</t>
-  </si>
-  <si>
-    <t>[District], [City], [State]</t>
-  </si>
-  <si>
-    <t>[Phone Number]</t>
-  </si>
-  <si>
-    <t>[e-Mail]</t>
   </si>
   <si>
     <t>INVOICE NUMBER / ITEM TYPE</t>
@@ -102,6 +87,21 @@
   </si>
   <si>
     <t>IT145632</t>
+  </si>
+  <si>
+    <t>07/29/2025</t>
+  </si>
+  <si>
+    <t>Avenida São João 250</t>
+  </si>
+  <si>
+    <t>Centro, São Paulo, SP</t>
+  </si>
+  <si>
+    <t>123-654-9809</t>
+  </si>
+  <si>
+    <t>nj.tolentino@mail.com</t>
   </si>
 </sst>
 </file>
@@ -1086,10 +1086,10 @@
     <row r="7" spans="1:26" ht="30" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="1"/>
@@ -1146,7 +1146,7 @@
     <row r="9" spans="1:26" ht="21.75" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="13"/>
@@ -1176,7 +1176,7 @@
     <row r="10" spans="1:26" ht="25.5" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="50" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C10" s="45"/>
       <c r="D10" s="50"/>
@@ -1206,7 +1206,7 @@
     <row r="11" spans="1:26" ht="25.5" customHeight="1">
       <c r="A11" s="11"/>
       <c r="B11" s="15" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="15"/>
@@ -1236,7 +1236,7 @@
     <row r="12" spans="1:26" ht="25.5" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="15"/>
@@ -1266,7 +1266,7 @@
     <row r="13" spans="1:26" ht="25.5" customHeight="1">
       <c r="A13" s="11"/>
       <c r="B13" s="15" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="15"/>
@@ -1352,18 +1352,18 @@
     <row r="16" spans="1:26" ht="21" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="51" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C16" s="52"/>
       <c r="D16" s="16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E16" s="53" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F16" s="52"/>
       <c r="G16" s="16" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="1"/>
@@ -1724,12 +1724,12 @@
     <row r="27" spans="1:26" ht="18.75" customHeight="1">
       <c r="A27" s="25"/>
       <c r="B27" s="26" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="28"/>
       <c r="E27" s="29" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="31">
@@ -1765,7 +1765,7 @@
       <c r="C28" s="27"/>
       <c r="D28" s="28"/>
       <c r="E28" s="29" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F28" s="30"/>
       <c r="G28" s="31">
@@ -1797,7 +1797,7 @@
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F29" s="30"/>
       <c r="G29" s="33">
@@ -1829,7 +1829,7 @@
       <c r="C30" s="27"/>
       <c r="D30" s="28"/>
       <c r="E30" s="29" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F30" s="30"/>
       <c r="G30" s="31">
@@ -1862,7 +1862,7 @@
       <c r="C31" s="27"/>
       <c r="D31" s="28"/>
       <c r="E31" s="29" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F31" s="30"/>
       <c r="G31" s="31">
@@ -1948,7 +1948,7 @@
     <row r="34" spans="1:26" ht="16.5" customHeight="1">
       <c r="A34" s="37"/>
       <c r="B34" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1978,7 +1978,7 @@
     <row r="35" spans="1:26" ht="19.5" customHeight="1">
       <c r="A35" s="37"/>
       <c r="B35" s="58" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C35" s="45"/>
       <c r="D35" s="1"/>

--- a/Output/Relatorio_IT145632.xlsx
+++ b/Output/Relatorio_IT145632.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8126FFB-F429-4366-A3C2-C3FAADA88FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6655E472-D4A3-43F4-B6E6-5613BCCE9B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>SALES REPORT</t>
   </si>
@@ -102,6 +102,18 @@
   </si>
   <si>
     <t>nj.tolentino@mail.com</t>
+  </si>
+  <si>
+    <t>R$ 164050.18591</t>
+  </si>
+  <si>
+    <t>R$ 13407.3577</t>
+  </si>
+  <si>
+    <t>R$ 1823722.562</t>
+  </si>
+  <si>
+    <t>R$ 49788.07272</t>
   </si>
 </sst>
 </file>
@@ -1415,7 +1427,9 @@
     </row>
     <row r="18" spans="1:26" ht="25.5" customHeight="1">
       <c r="A18" s="3"/>
-      <c r="B18" s="57"/>
+      <c r="B18" s="57" t="s">
+        <v>22</v>
+      </c>
       <c r="C18" s="56"/>
       <c r="D18" s="17">
         <v>0</v>
@@ -1450,7 +1464,9 @@
     </row>
     <row r="19" spans="1:26" ht="25.5" customHeight="1">
       <c r="A19" s="18"/>
-      <c r="B19" s="57"/>
+      <c r="B19" s="57" t="s">
+        <v>23</v>
+      </c>
       <c r="C19" s="56"/>
       <c r="D19" s="19">
         <v>0</v>
@@ -1485,7 +1501,9 @@
     </row>
     <row r="20" spans="1:26" ht="25.5" customHeight="1">
       <c r="A20" s="3"/>
-      <c r="B20" s="57"/>
+      <c r="B20" s="57" t="s">
+        <v>24</v>
+      </c>
       <c r="C20" s="56"/>
       <c r="D20" s="19">
         <v>0</v>
@@ -1520,7 +1538,9 @@
     </row>
     <row r="21" spans="1:26" ht="25.5" customHeight="1">
       <c r="A21" s="3"/>
-      <c r="B21" s="57"/>
+      <c r="B21" s="57" t="s">
+        <v>25</v>
+      </c>
       <c r="C21" s="56"/>
       <c r="D21" s="19">
         <v>0</v>

--- a/Output/Relatorio_IT145632.xlsx
+++ b/Output/Relatorio_IT145632.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6655E472-D4A3-43F4-B6E6-5613BCCE9B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D367117-5F17-4D28-BA21-6A4B1A847FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,16 +104,16 @@
     <t>nj.tolentino@mail.com</t>
   </si>
   <si>
-    <t>R$ 164050.18591</t>
+    <t>826833 / IT Support</t>
   </si>
   <si>
-    <t>R$ 13407.3577</t>
+    <t>296596 / Professional Services</t>
   </si>
   <si>
-    <t>R$ 1823722.562</t>
+    <t>349606 / Beverages and Catering</t>
   </si>
   <si>
-    <t>R$ 49788.07272</t>
+    <t>867556 / Beverages and Catering</t>
   </si>
 </sst>
 </file>
@@ -1432,15 +1432,15 @@
       </c>
       <c r="C18" s="56"/>
       <c r="D18" s="17">
-        <v>0</v>
+        <v>164050.19</v>
       </c>
       <c r="E18" s="55">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F18" s="56"/>
       <c r="G18" s="17">
         <f t="shared" ref="G18:G25" si="0">D18*E18</f>
-        <v>0</v>
+        <v>1312401.52</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="1"/>
@@ -1469,15 +1469,15 @@
       </c>
       <c r="C19" s="56"/>
       <c r="D19" s="19">
-        <v>0</v>
+        <v>13412.99</v>
       </c>
       <c r="E19" s="55">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F19" s="56"/>
       <c r="G19" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>107303.92</v>
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="1"/>
@@ -1506,15 +1506,15 @@
       </c>
       <c r="C20" s="56"/>
       <c r="D20" s="19">
-        <v>0</v>
+        <v>1823190.38</v>
       </c>
       <c r="E20" s="55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="56"/>
       <c r="G20" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1823190.38</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="1"/>
@@ -1543,15 +1543,15 @@
       </c>
       <c r="C21" s="56"/>
       <c r="D21" s="19">
-        <v>0</v>
+        <v>49756.13</v>
       </c>
       <c r="E21" s="55">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F21" s="56"/>
       <c r="G21" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>497561.3</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="1"/>
@@ -1754,7 +1754,7 @@
       <c r="F27" s="30"/>
       <c r="G27" s="31">
         <f>SUM(G18:G25)</f>
-        <v>0</v>
+        <v>3740457.1199999996</v>
       </c>
       <c r="H27" s="32"/>
       <c r="I27" s="1"/>
@@ -1780,7 +1780,7 @@
       <c r="A28" s="25"/>
       <c r="B28" s="65">
         <f>G31</f>
-        <v>0</v>
+        <v>3740457.1199999996</v>
       </c>
       <c r="C28" s="27"/>
       <c r="D28" s="28"/>
@@ -1887,7 +1887,7 @@
       <c r="F31" s="30"/>
       <c r="G31" s="31">
         <f>G27-G28+G30</f>
-        <v>0</v>
+        <v>3740457.1199999996</v>
       </c>
       <c r="H31" s="32"/>
       <c r="I31" s="1"/>

--- a/Output/Relatorio_IT145632.xlsx
+++ b/Output/Relatorio_IT145632.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D367117-5F17-4D28-BA21-6A4B1A847FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E52297-4A34-4A71-AD46-CB6D490B88E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="C19" s="56"/>
       <c r="D19" s="19">
-        <v>13412.99</v>
+        <v>13417.88</v>
       </c>
       <c r="E19" s="55">
         <v>8</v>
@@ -1477,7 +1477,7 @@
       <c r="F19" s="56"/>
       <c r="G19" s="17">
         <f t="shared" si="0"/>
-        <v>107303.92</v>
+        <v>107343.03999999999</v>
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="1"/>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="C20" s="56"/>
       <c r="D20" s="19">
-        <v>1823190.38</v>
+        <v>1823556.25</v>
       </c>
       <c r="E20" s="55">
         <v>1</v>
@@ -1514,7 +1514,7 @@
       <c r="F20" s="56"/>
       <c r="G20" s="17">
         <f t="shared" si="0"/>
-        <v>1823190.38</v>
+        <v>1823556.25</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="1"/>
@@ -1754,7 +1754,7 @@
       <c r="F27" s="30"/>
       <c r="G27" s="31">
         <f>SUM(G18:G25)</f>
-        <v>3740457.1199999996</v>
+        <v>3740862.11</v>
       </c>
       <c r="H27" s="32"/>
       <c r="I27" s="1"/>
@@ -1780,7 +1780,7 @@
       <c r="A28" s="25"/>
       <c r="B28" s="65">
         <f>G31</f>
-        <v>3740457.1199999996</v>
+        <v>3740862.11</v>
       </c>
       <c r="C28" s="27"/>
       <c r="D28" s="28"/>
@@ -1887,7 +1887,7 @@
       <c r="F31" s="30"/>
       <c r="G31" s="31">
         <f>G27-G28+G30</f>
-        <v>3740457.1199999996</v>
+        <v>3740862.11</v>
       </c>
       <c r="H31" s="32"/>
       <c r="I31" s="1"/>

--- a/Output/Relatorio_IT145632.xlsx
+++ b/Output/Relatorio_IT145632.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E52297-4A34-4A71-AD46-CB6D490B88E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5589F4A9-1D05-4864-8F08-14D6CB808A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C18" s="56"/>
       <c r="D18" s="17">
-        <v>164050.19</v>
+        <v>164155.49</v>
       </c>
       <c r="E18" s="55">
         <v>8</v>
@@ -1440,7 +1440,7 @@
       <c r="F18" s="56"/>
       <c r="G18" s="17">
         <f t="shared" ref="G18:G25" si="0">D18*E18</f>
-        <v>1312401.52</v>
+        <v>1313243.92</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="1"/>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="C19" s="56"/>
       <c r="D19" s="19">
-        <v>13417.88</v>
+        <v>13416.17</v>
       </c>
       <c r="E19" s="55">
         <v>8</v>
@@ -1477,7 +1477,7 @@
       <c r="F19" s="56"/>
       <c r="G19" s="17">
         <f t="shared" si="0"/>
-        <v>107343.03999999999</v>
+        <v>107329.36</v>
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="1"/>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="C20" s="56"/>
       <c r="D20" s="19">
-        <v>1823556.25</v>
+        <v>1823622.78</v>
       </c>
       <c r="E20" s="55">
         <v>1</v>
@@ -1514,7 +1514,7 @@
       <c r="F20" s="56"/>
       <c r="G20" s="17">
         <f t="shared" si="0"/>
-        <v>1823556.25</v>
+        <v>1823622.78</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="1"/>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="C21" s="56"/>
       <c r="D21" s="19">
-        <v>49756.13</v>
+        <v>49788.07</v>
       </c>
       <c r="E21" s="55">
         <v>10</v>
@@ -1551,7 +1551,7 @@
       <c r="F21" s="56"/>
       <c r="G21" s="17">
         <f t="shared" si="0"/>
-        <v>497561.3</v>
+        <v>497880.7</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="1"/>
@@ -1754,7 +1754,7 @@
       <c r="F27" s="30"/>
       <c r="G27" s="31">
         <f>SUM(G18:G25)</f>
-        <v>3740862.11</v>
+        <v>3742076.7600000002</v>
       </c>
       <c r="H27" s="32"/>
       <c r="I27" s="1"/>
@@ -1780,7 +1780,7 @@
       <c r="A28" s="25"/>
       <c r="B28" s="65">
         <f>G31</f>
-        <v>3740862.11</v>
+        <v>20207214.479999997</v>
       </c>
       <c r="C28" s="27"/>
       <c r="D28" s="28"/>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="F28" s="30"/>
       <c r="G28" s="31">
-        <v>0</v>
+        <v>374207.68</v>
       </c>
       <c r="H28" s="32"/>
       <c r="I28" s="1"/>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="F29" s="30"/>
       <c r="G29" s="33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H29" s="32"/>
       <c r="I29" s="1"/>
@@ -1854,7 +1854,7 @@
       <c r="F30" s="30"/>
       <c r="G30" s="31">
         <f>(G27-G28)*G29</f>
-        <v>0</v>
+        <v>16839345.399999999</v>
       </c>
       <c r="H30" s="32"/>
       <c r="I30" s="1"/>
@@ -1887,7 +1887,7 @@
       <c r="F31" s="30"/>
       <c r="G31" s="31">
         <f>G27-G28+G30</f>
-        <v>3740862.11</v>
+        <v>20207214.479999997</v>
       </c>
       <c r="H31" s="32"/>
       <c r="I31" s="1"/>

--- a/Output/Relatorio_IT145632.xlsx
+++ b/Output/Relatorio_IT145632.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5589F4A9-1D05-4864-8F08-14D6CB808A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B83292-69DC-489A-BDD4-9E192974E8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="{ID_VENDOR}" sheetId="1" r:id="rId1"/>
+    <sheet name="IT145632" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C18" s="56"/>
       <c r="D18" s="17">
-        <v>164155.49</v>
+        <v>164050.19</v>
       </c>
       <c r="E18" s="55">
         <v>8</v>
@@ -1440,7 +1440,7 @@
       <c r="F18" s="56"/>
       <c r="G18" s="17">
         <f t="shared" ref="G18:G25" si="0">D18*E18</f>
-        <v>1313243.92</v>
+        <v>1312401.52</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="1"/>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="C19" s="56"/>
       <c r="D19" s="19">
-        <v>13416.17</v>
+        <v>13415.19</v>
       </c>
       <c r="E19" s="55">
         <v>8</v>
@@ -1477,7 +1477,7 @@
       <c r="F19" s="56"/>
       <c r="G19" s="17">
         <f t="shared" si="0"/>
-        <v>107329.36</v>
+        <v>107321.52</v>
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="1"/>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="C20" s="56"/>
       <c r="D20" s="19">
-        <v>1823622.78</v>
+        <v>1823489.73</v>
       </c>
       <c r="E20" s="55">
         <v>1</v>
@@ -1514,7 +1514,7 @@
       <c r="F20" s="56"/>
       <c r="G20" s="17">
         <f t="shared" si="0"/>
-        <v>1823622.78</v>
+        <v>1823489.73</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="1"/>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="C21" s="56"/>
       <c r="D21" s="19">
-        <v>49788.07</v>
+        <v>49756.13</v>
       </c>
       <c r="E21" s="55">
         <v>10</v>
@@ -1551,7 +1551,7 @@
       <c r="F21" s="56"/>
       <c r="G21" s="17">
         <f t="shared" si="0"/>
-        <v>497880.7</v>
+        <v>497561.3</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="1"/>
@@ -1754,7 +1754,7 @@
       <c r="F27" s="30"/>
       <c r="G27" s="31">
         <f>SUM(G18:G25)</f>
-        <v>3742076.7600000002</v>
+        <v>3740774.07</v>
       </c>
       <c r="H27" s="32"/>
       <c r="I27" s="1"/>
@@ -1780,7 +1780,7 @@
       <c r="A28" s="25"/>
       <c r="B28" s="65">
         <f>G31</f>
-        <v>20207214.479999997</v>
+        <v>3535031.4929999998</v>
       </c>
       <c r="C28" s="27"/>
       <c r="D28" s="28"/>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="F28" s="30"/>
       <c r="G28" s="31">
-        <v>374207.68</v>
+        <v>374077.41</v>
       </c>
       <c r="H28" s="32"/>
       <c r="I28" s="1"/>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="F29" s="30"/>
       <c r="G29" s="33">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="H29" s="32"/>
       <c r="I29" s="1"/>
@@ -1854,7 +1854,7 @@
       <c r="F30" s="30"/>
       <c r="G30" s="31">
         <f>(G27-G28)*G29</f>
-        <v>16839345.399999999</v>
+        <v>168334.83299999998</v>
       </c>
       <c r="H30" s="32"/>
       <c r="I30" s="1"/>
@@ -1887,7 +1887,7 @@
       <c r="F31" s="30"/>
       <c r="G31" s="31">
         <f>G27-G28+G30</f>
-        <v>20207214.479999997</v>
+        <v>3535031.4929999998</v>
       </c>
       <c r="H31" s="32"/>
       <c r="I31" s="1"/>

--- a/Output/Relatorio_IT145632.xlsx
+++ b/Output/Relatorio_IT145632.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B83292-69DC-489A-BDD4-9E192974E8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EA8822-930F-4B42-A40C-62C6AEB01E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C18" s="56"/>
       <c r="D18" s="17">
-        <v>164050.19</v>
+        <v>164155.49</v>
       </c>
       <c r="E18" s="55">
         <v>8</v>
@@ -1440,7 +1440,7 @@
       <c r="F18" s="56"/>
       <c r="G18" s="17">
         <f t="shared" ref="G18:G25" si="0">D18*E18</f>
-        <v>1312401.52</v>
+        <v>1313243.92</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="1"/>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="C19" s="56"/>
       <c r="D19" s="19">
-        <v>13415.19</v>
+        <v>13425.71</v>
       </c>
       <c r="E19" s="55">
         <v>8</v>
@@ -1477,7 +1477,7 @@
       <c r="F19" s="56"/>
       <c r="G19" s="17">
         <f t="shared" si="0"/>
-        <v>107321.52</v>
+        <v>107405.68</v>
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="1"/>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="C20" s="56"/>
       <c r="D20" s="19">
-        <v>1823489.73</v>
+        <v>1824919.97</v>
       </c>
       <c r="E20" s="55">
         <v>1</v>
@@ -1514,7 +1514,7 @@
       <c r="F20" s="56"/>
       <c r="G20" s="17">
         <f t="shared" si="0"/>
-        <v>1823489.73</v>
+        <v>1824919.97</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="1"/>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="C21" s="56"/>
       <c r="D21" s="19">
-        <v>49756.13</v>
+        <v>49788.07</v>
       </c>
       <c r="E21" s="55">
         <v>10</v>
@@ -1551,7 +1551,7 @@
       <c r="F21" s="56"/>
       <c r="G21" s="17">
         <f t="shared" si="0"/>
-        <v>497561.3</v>
+        <v>497880.7</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="1"/>
@@ -1754,7 +1754,7 @@
       <c r="F27" s="30"/>
       <c r="G27" s="31">
         <f>SUM(G18:G25)</f>
-        <v>3740774.07</v>
+        <v>3743450.27</v>
       </c>
       <c r="H27" s="32"/>
       <c r="I27" s="1"/>
@@ -1780,7 +1780,7 @@
       <c r="A28" s="25"/>
       <c r="B28" s="65">
         <f>G31</f>
-        <v>3535031.4929999998</v>
+        <v>3537560.5020000003</v>
       </c>
       <c r="C28" s="27"/>
       <c r="D28" s="28"/>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="F28" s="30"/>
       <c r="G28" s="31">
-        <v>374077.41</v>
+        <v>374345.03</v>
       </c>
       <c r="H28" s="32"/>
       <c r="I28" s="1"/>
@@ -1854,7 +1854,7 @@
       <c r="F30" s="30"/>
       <c r="G30" s="31">
         <f>(G27-G28)*G29</f>
-        <v>168334.83299999998</v>
+        <v>168455.26200000002</v>
       </c>
       <c r="H30" s="32"/>
       <c r="I30" s="1"/>
@@ -1887,7 +1887,7 @@
       <c r="F31" s="30"/>
       <c r="G31" s="31">
         <f>G27-G28+G30</f>
-        <v>3535031.4929999998</v>
+        <v>3537560.5020000003</v>
       </c>
       <c r="H31" s="32"/>
       <c r="I31" s="1"/>

--- a/Output/Relatorio_IT145632.xlsx
+++ b/Output/Relatorio_IT145632.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E7ED1D-C686-4329-A465-9ED374D5DD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4B4C50-1205-42AB-BB4D-475CAD3639E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>DATE</t>
-  </si>
-  <si>
-    <t>[Vendor Name]</t>
   </si>
   <si>
     <t>INVOICE NUMBER / ITEM TYPE</t>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>Centro, São Paulo, SP</t>
+  </si>
+  <si>
+    <t>NJ TOLENTINO</t>
   </si>
   <si>
     <t>123-654-9809</t>
@@ -1098,10 +1098,10 @@
     <row r="7" spans="1:26" ht="30" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="1"/>
@@ -1158,7 +1158,7 @@
     <row r="9" spans="1:26" ht="21.75" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="12" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="13"/>
@@ -1188,7 +1188,7 @@
     <row r="10" spans="1:26" ht="25.5" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="45"/>
       <c r="D10" s="50"/>
@@ -1218,7 +1218,7 @@
     <row r="11" spans="1:26" ht="25.5" customHeight="1">
       <c r="A11" s="11"/>
       <c r="B11" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="15"/>
@@ -1364,18 +1364,18 @@
     <row r="16" spans="1:26" ht="21" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="52"/>
       <c r="D16" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" s="53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" s="52"/>
       <c r="G16" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="1"/>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C18" s="56"/>
       <c r="D18" s="17">
-        <v>164366.60999999999</v>
+        <v>164790.37</v>
       </c>
       <c r="E18" s="55">
         <v>8</v>
@@ -1440,7 +1440,7 @@
       <c r="F18" s="56"/>
       <c r="G18" s="17">
         <f t="shared" ref="G18:G25" si="0">D18*E18</f>
-        <v>1314932.8799999999</v>
+        <v>1318322.96</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="1"/>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="C19" s="56"/>
       <c r="D19" s="19">
-        <v>13432.07</v>
+        <v>13444.06</v>
       </c>
       <c r="E19" s="55">
         <v>8</v>
@@ -1477,7 +1477,7 @@
       <c r="F19" s="56"/>
       <c r="G19" s="17">
         <f t="shared" si="0"/>
-        <v>107456.56</v>
+        <v>107552.48</v>
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="1"/>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="C20" s="56"/>
       <c r="D20" s="19">
-        <v>1825784.77</v>
+        <v>1827414.58</v>
       </c>
       <c r="E20" s="55">
         <v>1</v>
@@ -1514,7 +1514,7 @@
       <c r="F20" s="56"/>
       <c r="G20" s="17">
         <f t="shared" si="0"/>
-        <v>1825784.77</v>
+        <v>1827414.58</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="1"/>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="C21" s="56"/>
       <c r="D21" s="19">
-        <v>49852.1</v>
+        <v>49980.63</v>
       </c>
       <c r="E21" s="55">
         <v>10</v>
@@ -1551,7 +1551,7 @@
       <c r="F21" s="56"/>
       <c r="G21" s="17">
         <f t="shared" si="0"/>
-        <v>498521</v>
+        <v>499806.3</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="1"/>
@@ -1744,17 +1744,17 @@
     <row r="27" spans="1:26" ht="18.75" customHeight="1">
       <c r="A27" s="25"/>
       <c r="B27" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="28"/>
       <c r="E27" s="29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="31">
         <f>SUM(G18:G25)</f>
-        <v>3746695.21</v>
+        <v>3753096.32</v>
       </c>
       <c r="H27" s="32"/>
       <c r="I27" s="1"/>
@@ -1780,16 +1780,16 @@
       <c r="A28" s="25"/>
       <c r="B28" s="65">
         <f>G31</f>
-        <v>3540626.9745</v>
+        <v>3546676.0244999998</v>
       </c>
       <c r="C28" s="27"/>
       <c r="D28" s="28"/>
       <c r="E28" s="29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28" s="30"/>
       <c r="G28" s="31">
-        <v>374669.52</v>
+        <v>375309.63</v>
       </c>
       <c r="H28" s="32"/>
       <c r="I28" s="1"/>
@@ -1817,7 +1817,7 @@
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" s="30"/>
       <c r="G29" s="33">
@@ -1849,12 +1849,12 @@
       <c r="C30" s="27"/>
       <c r="D30" s="28"/>
       <c r="E30" s="29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" s="30"/>
       <c r="G30" s="31">
         <f>(G27-G28)*G29</f>
-        <v>168601.28450000001</v>
+        <v>168889.3345</v>
       </c>
       <c r="H30" s="32"/>
       <c r="I30" s="1"/>
@@ -1882,12 +1882,12 @@
       <c r="C31" s="27"/>
       <c r="D31" s="28"/>
       <c r="E31" s="29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F31" s="30"/>
       <c r="G31" s="31">
         <f>G27-G28+G30</f>
-        <v>3540626.9745</v>
+        <v>3546676.0244999998</v>
       </c>
       <c r="H31" s="32"/>
       <c r="I31" s="1"/>
@@ -1968,7 +1968,7 @@
     <row r="34" spans="1:26" ht="16.5" customHeight="1">
       <c r="A34" s="37"/>
       <c r="B34" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1998,7 +1998,7 @@
     <row r="35" spans="1:26" ht="19.5" customHeight="1">
       <c r="A35" s="37"/>
       <c r="B35" s="58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35" s="45"/>
       <c r="D35" s="1"/>

--- a/Output/Relatorio_IT145632.xlsx
+++ b/Output/Relatorio_IT145632.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4B4C50-1205-42AB-BB4D-475CAD3639E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CC2D70-DA9E-4F89-9097-2D3D94DC8A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C18" s="56"/>
       <c r="D18" s="17">
-        <v>164790.37</v>
+        <v>164155.49</v>
       </c>
       <c r="E18" s="55">
         <v>8</v>
@@ -1440,7 +1440,7 @@
       <c r="F18" s="56"/>
       <c r="G18" s="17">
         <f t="shared" ref="G18:G25" si="0">D18*E18</f>
-        <v>1318322.96</v>
+        <v>1313243.92</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="1"/>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="C19" s="56"/>
       <c r="D19" s="19">
-        <v>13444.06</v>
+        <v>13391.43</v>
       </c>
       <c r="E19" s="55">
         <v>8</v>
@@ -1477,7 +1477,7 @@
       <c r="F19" s="56"/>
       <c r="G19" s="17">
         <f t="shared" si="0"/>
-        <v>107552.48</v>
+        <v>107131.44</v>
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="1"/>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="C20" s="56"/>
       <c r="D20" s="19">
-        <v>1827414.58</v>
+        <v>1824793.58</v>
       </c>
       <c r="E20" s="55">
         <v>1</v>
@@ -1514,7 +1514,7 @@
       <c r="F20" s="56"/>
       <c r="G20" s="17">
         <f t="shared" si="0"/>
-        <v>1827414.58</v>
+        <v>1824793.58</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="1"/>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="C21" s="56"/>
       <c r="D21" s="19">
-        <v>49980.63</v>
+        <v>49788.07</v>
       </c>
       <c r="E21" s="55">
         <v>10</v>
@@ -1551,7 +1551,7 @@
       <c r="F21" s="56"/>
       <c r="G21" s="17">
         <f t="shared" si="0"/>
-        <v>499806.3</v>
+        <v>497880.7</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="1"/>
@@ -1754,7 +1754,7 @@
       <c r="F27" s="30"/>
       <c r="G27" s="31">
         <f>SUM(G18:G25)</f>
-        <v>3753096.32</v>
+        <v>3743049.64</v>
       </c>
       <c r="H27" s="32"/>
       <c r="I27" s="1"/>
@@ -1780,7 +1780,7 @@
       <c r="A28" s="25"/>
       <c r="B28" s="65">
         <f>G31</f>
-        <v>3546676.0244999998</v>
+        <v>3537181.9140000003</v>
       </c>
       <c r="C28" s="27"/>
       <c r="D28" s="28"/>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="F28" s="30"/>
       <c r="G28" s="31">
-        <v>375309.63</v>
+        <v>374304.96</v>
       </c>
       <c r="H28" s="32"/>
       <c r="I28" s="1"/>
@@ -1854,7 +1854,7 @@
       <c r="F30" s="30"/>
       <c r="G30" s="31">
         <f>(G27-G28)*G29</f>
-        <v>168889.3345</v>
+        <v>168437.23400000003</v>
       </c>
       <c r="H30" s="32"/>
       <c r="I30" s="1"/>
@@ -1887,7 +1887,7 @@
       <c r="F31" s="30"/>
       <c r="G31" s="31">
         <f>G27-G28+G30</f>
-        <v>3546676.0244999998</v>
+        <v>3537181.9140000003</v>
       </c>
       <c r="H31" s="32"/>
       <c r="I31" s="1"/>

--- a/Output/Relatorio_IT145632.xlsx
+++ b/Output/Relatorio_IT145632.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr/>
+  <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CC2D70-DA9E-4F89-9097-2D3D94DC8A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39647300-C6E6-4372-9B41-A2DBE6EEF01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -898,8 +898,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Planilha1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
@@ -1432,7 +1433,7 @@
       </c>
       <c r="C18" s="56"/>
       <c r="D18" s="17">
-        <v>164155.49</v>
+        <v>164472.42000000001</v>
       </c>
       <c r="E18" s="55">
         <v>8</v>
@@ -1440,7 +1441,7 @@
       <c r="F18" s="56"/>
       <c r="G18" s="17">
         <f t="shared" ref="G18:G25" si="0">D18*E18</f>
-        <v>1313243.92</v>
+        <v>1315779.3600000001</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="1"/>
@@ -1469,7 +1470,7 @@
       </c>
       <c r="C19" s="56"/>
       <c r="D19" s="19">
-        <v>13391.43</v>
+        <v>13443.57</v>
       </c>
       <c r="E19" s="55">
         <v>8</v>
@@ -1477,7 +1478,7 @@
       <c r="F19" s="56"/>
       <c r="G19" s="17">
         <f t="shared" si="0"/>
-        <v>107131.44</v>
+        <v>107548.56</v>
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="1"/>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="C20" s="56"/>
       <c r="D20" s="19">
-        <v>1824793.58</v>
+        <v>1827348.05</v>
       </c>
       <c r="E20" s="55">
         <v>1</v>
@@ -1514,7 +1515,7 @@
       <c r="F20" s="56"/>
       <c r="G20" s="17">
         <f t="shared" si="0"/>
-        <v>1824793.58</v>
+        <v>1827348.05</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="1"/>
@@ -1543,7 +1544,7 @@
       </c>
       <c r="C21" s="56"/>
       <c r="D21" s="19">
-        <v>49788.07</v>
+        <v>49884.2</v>
       </c>
       <c r="E21" s="55">
         <v>10</v>
@@ -1551,7 +1552,7 @@
       <c r="F21" s="56"/>
       <c r="G21" s="17">
         <f t="shared" si="0"/>
-        <v>497880.7</v>
+        <v>498842</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="1"/>
@@ -1754,7 +1755,7 @@
       <c r="F27" s="30"/>
       <c r="G27" s="31">
         <f>SUM(G18:G25)</f>
-        <v>3743049.64</v>
+        <v>3749517.97</v>
       </c>
       <c r="H27" s="32"/>
       <c r="I27" s="1"/>
@@ -1780,7 +1781,7 @@
       <c r="A28" s="25"/>
       <c r="B28" s="65">
         <f>G31</f>
-        <v>3537181.9140000003</v>
+        <v>3543294.4785000002</v>
       </c>
       <c r="C28" s="27"/>
       <c r="D28" s="28"/>
@@ -1789,7 +1790,7 @@
       </c>
       <c r="F28" s="30"/>
       <c r="G28" s="31">
-        <v>374304.96</v>
+        <v>374951.8</v>
       </c>
       <c r="H28" s="32"/>
       <c r="I28" s="1"/>
@@ -1854,7 +1855,7 @@
       <c r="F30" s="30"/>
       <c r="G30" s="31">
         <f>(G27-G28)*G29</f>
-        <v>168437.23400000003</v>
+        <v>168728.30850000004</v>
       </c>
       <c r="H30" s="32"/>
       <c r="I30" s="1"/>
@@ -1887,7 +1888,7 @@
       <c r="F31" s="30"/>
       <c r="G31" s="31">
         <f>G27-G28+G30</f>
-        <v>3537181.9140000003</v>
+        <v>3543294.4785000002</v>
       </c>
       <c r="H31" s="32"/>
       <c r="I31" s="1"/>
@@ -29074,8 +29075,8 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="E16:F16"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Output/Relatorio_IT145632.xlsx
+++ b/Output/Relatorio_IT145632.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B66E09A-D046-4D15-9C82-68F86F992EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E6E652-0729-45EE-A1C8-5AC81CAF4DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="36">
-        <v>164261.04999999999</v>
+        <v>163839.84</v>
       </c>
       <c r="E18" s="37">
         <v>8</v>
@@ -1391,7 +1391,7 @@
       <c r="F18" s="35"/>
       <c r="G18" s="36">
         <f t="shared" ref="G18:G25" si="0">D18*E18</f>
-        <v>1314088.3999999999</v>
+        <v>1310718.72</v>
       </c>
       <c r="H18" s="23"/>
       <c r="I18" s="7"/>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="38">
-        <v>13439.66</v>
+        <v>13392.68</v>
       </c>
       <c r="E19" s="37">
         <v>8</v>
@@ -1428,7 +1428,7 @@
       <c r="F19" s="35"/>
       <c r="G19" s="36">
         <f t="shared" si="0"/>
-        <v>107517.28</v>
+        <v>107141.44</v>
       </c>
       <c r="H19" s="23"/>
       <c r="I19" s="7"/>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="38">
-        <v>1826815.87</v>
+        <v>1820230.11</v>
       </c>
       <c r="E20" s="37">
         <v>1</v>
@@ -1465,7 +1465,7 @@
       <c r="F20" s="35"/>
       <c r="G20" s="36">
         <f t="shared" si="0"/>
-        <v>1826815.87</v>
+        <v>1820230.11</v>
       </c>
       <c r="H20" s="23"/>
       <c r="I20" s="7"/>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="C21" s="35"/>
       <c r="D21" s="38">
-        <v>49884.2</v>
+        <v>49660.47</v>
       </c>
       <c r="E21" s="37">
         <v>10</v>
@@ -1502,7 +1502,7 @@
       <c r="F21" s="35"/>
       <c r="G21" s="36">
         <f t="shared" si="0"/>
-        <v>498842</v>
+        <v>496604.7</v>
       </c>
       <c r="H21" s="23"/>
       <c r="I21" s="7"/>
@@ -1705,7 +1705,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="46">
         <f>SUM(G18:G25)</f>
-        <v>3747263.55</v>
+        <v>3734694.97</v>
       </c>
       <c r="H27" s="47"/>
       <c r="I27" s="7"/>
@@ -1731,7 +1731,7 @@
       <c r="A28" s="43"/>
       <c r="B28" s="48">
         <f>G31</f>
-        <v>3541164.0599999996</v>
+        <v>3529286.7435000003</v>
       </c>
       <c r="C28" s="44"/>
       <c r="D28" s="45"/>
@@ -1740,7 +1740,7 @@
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="46">
-        <v>374726.35</v>
+        <v>373469.5</v>
       </c>
       <c r="H28" s="47"/>
       <c r="I28" s="7"/>
@@ -1805,7 +1805,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="46">
         <f>(G27-G28)*G29</f>
-        <v>168626.86</v>
+        <v>168061.27350000001</v>
       </c>
       <c r="H30" s="47"/>
       <c r="I30" s="7"/>
@@ -1838,7 +1838,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="46">
         <f>G27-G28+G30</f>
-        <v>3541164.0599999996</v>
+        <v>3529286.7435000003</v>
       </c>
       <c r="H31" s="47"/>
       <c r="I31" s="7"/>
@@ -28998,16 +28998,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B35:C36"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A1:H4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E21:F21"/>
@@ -29019,11 +29014,16 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A1:H4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B35:C36"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B28:B29"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Output/Relatorio_IT145632.xlsx
+++ b/Output/Relatorio_IT145632.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E6E652-0729-45EE-A1C8-5AC81CAF4DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91633186-FE72-4E56-A32C-8BF4FD7D8A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="36">
-        <v>163839.84</v>
+        <v>163734.79</v>
       </c>
       <c r="E18" s="37">
         <v>8</v>
@@ -1391,7 +1391,7 @@
       <c r="F18" s="35"/>
       <c r="G18" s="36">
         <f t="shared" ref="G18:G25" si="0">D18*E18</f>
-        <v>1310718.72</v>
+        <v>1309878.32</v>
       </c>
       <c r="H18" s="23"/>
       <c r="I18" s="7"/>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="38">
-        <v>13392.68</v>
+        <v>13380.69</v>
       </c>
       <c r="E19" s="37">
         <v>8</v>
@@ -1428,7 +1428,7 @@
       <c r="F19" s="35"/>
       <c r="G19" s="36">
         <f t="shared" si="0"/>
-        <v>107141.44</v>
+        <v>107045.52</v>
       </c>
       <c r="H19" s="23"/>
       <c r="I19" s="7"/>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="38">
-        <v>1820230.11</v>
+        <v>1818799.87</v>
       </c>
       <c r="E20" s="37">
         <v>1</v>
@@ -1465,7 +1465,7 @@
       <c r="F20" s="35"/>
       <c r="G20" s="36">
         <f t="shared" si="0"/>
-        <v>1820230.11</v>
+        <v>1818799.87</v>
       </c>
       <c r="H20" s="23"/>
       <c r="I20" s="7"/>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="C21" s="35"/>
       <c r="D21" s="38">
-        <v>49660.47</v>
+        <v>49724.2</v>
       </c>
       <c r="E21" s="37">
         <v>10</v>
@@ -1502,7 +1502,7 @@
       <c r="F21" s="35"/>
       <c r="G21" s="36">
         <f t="shared" si="0"/>
-        <v>496604.7</v>
+        <v>497242</v>
       </c>
       <c r="H21" s="23"/>
       <c r="I21" s="7"/>
@@ -1705,7 +1705,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="46">
         <f>SUM(G18:G25)</f>
-        <v>3734694.97</v>
+        <v>3732965.71</v>
       </c>
       <c r="H27" s="47"/>
       <c r="I27" s="7"/>
@@ -1731,7 +1731,7 @@
       <c r="A28" s="43"/>
       <c r="B28" s="48">
         <f>G31</f>
-        <v>3529286.7435000003</v>
+        <v>3527652.5970000001</v>
       </c>
       <c r="C28" s="44"/>
       <c r="D28" s="45"/>
@@ -1740,7 +1740,7 @@
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="46">
-        <v>373469.5</v>
+        <v>373296.57</v>
       </c>
       <c r="H28" s="47"/>
       <c r="I28" s="7"/>
@@ -1805,7 +1805,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="46">
         <f>(G27-G28)*G29</f>
-        <v>168061.27350000001</v>
+        <v>167983.45700000002</v>
       </c>
       <c r="H30" s="47"/>
       <c r="I30" s="7"/>
@@ -1838,7 +1838,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="46">
         <f>G27-G28+G30</f>
-        <v>3529286.7435000003</v>
+        <v>3527652.5970000001</v>
       </c>
       <c r="H31" s="47"/>
       <c r="I31" s="7"/>

--- a/Output/Relatorio_IT145632.xlsx
+++ b/Output/Relatorio_IT145632.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B11DA8-E470-4C76-AAB1-4F3F9DA43E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B66B26B-FBF4-4535-A5B9-DA94A775BC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="36">
-        <v>163734.79</v>
+        <v>163525.20000000001</v>
       </c>
       <c r="E18" s="37">
         <v>8</v>
@@ -1391,7 +1391,7 @@
       <c r="F18" s="35"/>
       <c r="G18" s="36">
         <f t="shared" ref="G18:G25" si="0">D18*E18</f>
-        <v>1309878.32</v>
+        <v>1308201.6000000001</v>
       </c>
       <c r="H18" s="23"/>
       <c r="I18" s="7"/>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="38">
-        <v>13357.19</v>
+        <v>13337.86</v>
       </c>
       <c r="E19" s="37">
         <v>8</v>
@@ -1428,7 +1428,7 @@
       <c r="F19" s="35"/>
       <c r="G19" s="36">
         <f t="shared" si="0"/>
-        <v>106857.52</v>
+        <v>106702.88</v>
       </c>
       <c r="H19" s="23"/>
       <c r="I19" s="7"/>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="38">
-        <v>1813464.75</v>
+        <v>1814509.15</v>
       </c>
       <c r="E20" s="37">
         <v>1</v>
@@ -1465,7 +1465,7 @@
       <c r="F20" s="35"/>
       <c r="G20" s="36">
         <f t="shared" si="0"/>
-        <v>1813464.75</v>
+        <v>1814509.15</v>
       </c>
       <c r="H20" s="23"/>
       <c r="I20" s="7"/>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="C21" s="35"/>
       <c r="D21" s="38">
-        <v>49660.47</v>
+        <v>49596.91</v>
       </c>
       <c r="E21" s="37">
         <v>10</v>
@@ -1502,7 +1502,7 @@
       <c r="F21" s="35"/>
       <c r="G21" s="36">
         <f t="shared" si="0"/>
-        <v>496604.7</v>
+        <v>495969.10000000003</v>
       </c>
       <c r="H21" s="23"/>
       <c r="I21" s="7"/>
@@ -1705,7 +1705,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="46">
         <f>SUM(G18:G25)</f>
-        <v>3726805.29</v>
+        <v>3725382.73</v>
       </c>
       <c r="H27" s="47"/>
       <c r="I27" s="7"/>
@@ -1731,7 +1731,7 @@
       <c r="A28" s="43"/>
       <c r="B28" s="48">
         <f>G31</f>
-        <v>3521830.9979999997</v>
+        <v>3520486.6830000002</v>
       </c>
       <c r="C28" s="44"/>
       <c r="D28" s="45"/>
@@ -1740,7 +1740,7 @@
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="46">
-        <v>372680.53</v>
+        <v>372538.27</v>
       </c>
       <c r="H28" s="47"/>
       <c r="I28" s="7"/>
@@ -1805,7 +1805,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="46">
         <f>(G27-G28)*G29</f>
-        <v>167706.23800000001</v>
+        <v>167642.223</v>
       </c>
       <c r="H30" s="47"/>
       <c r="I30" s="7"/>
@@ -1838,7 +1838,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="46">
         <f>G27-G28+G30</f>
-        <v>3521830.9979999997</v>
+        <v>3520486.6830000002</v>
       </c>
       <c r="H31" s="47"/>
       <c r="I31" s="7"/>
